--- a/Releases/V3/UnknownJournal.xlsx
+++ b/Releases/V3/UnknownJournal.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenweek/github.com/forchain/AUSPublication/Releases/V3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BFC017-CF4D-644B-A53C-E1806FD5F738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="NotFoundInPaper"/>
+    <sheet name="NotFoundInPaper" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="NotFoundInPaper">'NotFoundInPaper'!$A$1:$F$9</definedName>
+    <definedName name="NotFoundInPaper">NotFoundInPaper!$A$1:$F$9</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,6 +65,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -101,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +151,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,6 +203,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,273 +396,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>ISSN</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>eISSN</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>10.1007/978-3-319-69143-5_12</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>A Financial Business Case for Corporate Social Responsibility</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Oikonomou, Ioannis; Pastra, Aspasia; Visvikis, Ilias</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>2196-8772</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>2196-8780</t>
-        </is>
-      </c>
-      <c r="F2" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>10.1051/0004-6361/201832940</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Detecting the imprint of a kilonova or supernova in short gamma-ray burst afterglows</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Guessoum, N.; Zitouni, H.; Mochkovitch, R.</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>1432-0746</t>
-        </is>
-      </c>
-      <c r="F3" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>10.1007/978-981-13-0399-9_25</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Gender Inclusive Leadership for Innovation and Change: An HR Head's Reflections</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Jayashree, Payyazhi; Sevaldsen, Therese; Lindsay, Valerie</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>2192-4333</t>
-        </is>
-      </c>
-      <c r="F4" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>10.1061/(ASCE)EI.1943-5541.0000388</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Enriching the Learning Experience for Civil Engineering Students through Learner-Centered Teaching</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Yehia, Sherif; Gunn, Cindy</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>1052-3928</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>1943-5541</t>
-        </is>
-      </c>
-      <c r="F5" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>10.1103/PhysRevD.97.096015</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Tricritical behavior in the Chern-Simons-Ginzburg-Landau theory of self-dual Josephson junction arrays</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Sakhi, S.</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>2470-0010</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>2470-0029</t>
-        </is>
-      </c>
-      <c r="F6" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>10.1103/PhysRevE.97.052407</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Mechanical perturbation control of cardiac alternans</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Hazim, Azzam; Belhamadia, Youssef; Dubljevic, Stevan</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>2470-0045</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>2470-0053</t>
-        </is>
-      </c>
-      <c r="F7" s="0">
-        <v>2018</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>10.1016/j.jag.2019.101915</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Impacts of the decreased freeze-up period on primary production in Qinghai Lake</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Feng, Lian; Liv, Junguo; Ali, Twig A.; Li, Junsheng; Li, Juan; Kuang, Xingxing</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>0303-2434</t>
-        </is>
-      </c>
-      <c r="F8" s="0">
-        <v>2019</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>10.1103/PhysRevD.99.036017</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Bifurcation of fixed points in a O(N)-symmetric (2+1)-dimensional gauged Phi(6) theory with a Chern-Simons term</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Sakhi, S.; Panigrahi, P. K.</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>2470-0010</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>2470-0029</t>
-        </is>
-      </c>
-      <c r="F9" s="0">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>